--- a/excel/tableaudesprofiles.xlsx
+++ b/excel/tableaudesprofiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MATLAB\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B835AA01-EB79-40E7-8A64-7BBB574229FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFC7382-43F9-45D0-BCAC-11752AE12110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPE" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="tableauaciers" sheetId="3" r:id="rId6"/>
     <sheet name="regleBAEL" sheetId="5" r:id="rId7"/>
     <sheet name="HEA" sheetId="8" r:id="rId8"/>
+    <sheet name="comb_psi" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
   <si>
     <t>h</t>
   </si>
@@ -188,6 +189,30 @@
   </si>
   <si>
     <t>UAP</t>
+  </si>
+  <si>
+    <t>loads</t>
+  </si>
+  <si>
+    <t>snow load</t>
+  </si>
+  <si>
+    <t>wind load</t>
+  </si>
+  <si>
+    <t>live load</t>
+  </si>
+  <si>
+    <t>thermic load</t>
+  </si>
+  <si>
+    <t>psi0</t>
+  </si>
+  <si>
+    <t>psi1</t>
+  </si>
+  <si>
+    <t>psi2</t>
   </si>
 </sst>
 </file>
@@ -541,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10034,4 +10059,92 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F8AC0F-E000-4CB5-B5C5-459C6AEF1468}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>0.67</v>
+      </c>
+      <c r="C2">
+        <v>0.75</v>
+      </c>
+      <c r="D2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>0.6</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>0.53</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/tableaudesprofiles.xlsx
+++ b/excel/tableaudesprofiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3DC9B1-4DD5-4948-939D-C19FD339DF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE280A66-3435-403B-98EA-22E07F1371F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPE" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
@@ -1667,1440 +1667,1440 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:T28"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0.6</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1.2</v>
+      </c>
+      <c r="H2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <v>450</v>
+      </c>
+      <c r="K2">
+        <v>90</v>
+      </c>
+      <c r="L2">
+        <v>4.16</v>
+      </c>
+      <c r="N2">
+        <v>167</v>
+      </c>
+      <c r="O2">
+        <v>33</v>
+      </c>
+      <c r="P2">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="R2">
+        <v>104.2</v>
+      </c>
+      <c r="S2">
+        <v>51.42</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:T25" si="0">N2*(B2-E2)^2/4</f>
+        <v>3381.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>0.65</v>
+      </c>
+      <c r="E3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.2</v>
+      </c>
+      <c r="H3">
+        <v>26.7</v>
+      </c>
+      <c r="I3">
+        <v>34</v>
+      </c>
+      <c r="J3">
+        <v>864</v>
+      </c>
+      <c r="K3">
+        <v>144</v>
+      </c>
+      <c r="L3">
+        <v>5.04</v>
+      </c>
+      <c r="N3">
+        <v>318</v>
+      </c>
+      <c r="O3">
+        <v>53</v>
+      </c>
+      <c r="P3">
+        <v>3.06</v>
+      </c>
+      <c r="Q3">
+        <v>14.4</v>
+      </c>
+      <c r="R3">
+        <v>165.2</v>
+      </c>
+      <c r="S3">
+        <v>80.97</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>9445.3950000000004</v>
+      </c>
+    </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>140</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>1.2</v>
+      </c>
+      <c r="F4">
+        <v>1.2</v>
+      </c>
+      <c r="H4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I4">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" t="s">
-        <v>35</v>
+      <c r="J4">
+        <v>1509</v>
+      </c>
+      <c r="K4">
+        <v>216</v>
+      </c>
+      <c r="L4">
+        <v>5.93</v>
+      </c>
+      <c r="N4">
+        <v>550</v>
+      </c>
+      <c r="O4">
+        <v>79</v>
+      </c>
+      <c r="P4">
+        <v>3.58</v>
+      </c>
+      <c r="Q4">
+        <v>21.8</v>
+      </c>
+      <c r="R4">
+        <v>245.4</v>
+      </c>
+      <c r="S4">
+        <v>119.8</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>22528.000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H5">
-        <v>20.399999999999999</v>
+        <v>42.6</v>
       </c>
       <c r="I5">
-        <v>26</v>
+        <v>54.3</v>
       </c>
       <c r="J5">
-        <v>450</v>
+        <v>2492</v>
       </c>
       <c r="K5">
-        <v>90</v>
+        <v>311</v>
       </c>
       <c r="L5">
-        <v>4.16</v>
+        <v>6.78</v>
       </c>
       <c r="N5">
-        <v>167</v>
+        <v>889</v>
       </c>
       <c r="O5">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="P5">
-        <v>2.5299999999999998</v>
+        <v>4.05</v>
       </c>
       <c r="Q5">
-        <v>9.0500000000000007</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="R5">
-        <v>104.2</v>
+        <v>354</v>
       </c>
       <c r="S5">
-        <v>51.42</v>
+        <v>170</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T28" si="0">N5*(B5-E5)^2/4</f>
-        <v>3381.75</v>
+        <f t="shared" si="0"/>
+        <v>48026.002499999995</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="E6">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F6">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H6">
-        <v>26.7</v>
+        <v>51.2</v>
       </c>
       <c r="I6">
-        <v>34</v>
+        <v>65.3</v>
       </c>
       <c r="J6">
-        <v>864</v>
+        <v>3831</v>
       </c>
       <c r="K6">
-        <v>144</v>
+        <v>426</v>
       </c>
       <c r="L6">
-        <v>5.04</v>
+        <v>7.66</v>
       </c>
       <c r="N6">
-        <v>318</v>
+        <v>1363</v>
       </c>
       <c r="O6">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="P6">
-        <v>3.06</v>
+        <v>4.57</v>
       </c>
       <c r="Q6">
-        <v>14.4</v>
+        <v>45.1</v>
       </c>
       <c r="R6">
-        <v>165.2</v>
+        <v>481.4</v>
       </c>
       <c r="S6">
-        <v>80.97</v>
+        <v>231</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>9445.3950000000004</v>
+        <v>93897.070000000022</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F7">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H7">
-        <v>33.700000000000003</v>
+        <v>61.3</v>
       </c>
       <c r="I7">
-        <v>43</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="J7">
-        <v>1509</v>
+        <v>5696</v>
       </c>
       <c r="K7">
-        <v>216</v>
+        <v>570</v>
       </c>
       <c r="L7">
-        <v>5.93</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="N7">
-        <v>550</v>
+        <v>2003</v>
       </c>
       <c r="O7">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="P7">
-        <v>3.58</v>
+        <v>5.07</v>
       </c>
       <c r="Q7">
-        <v>21.8</v>
+        <v>61.4</v>
       </c>
       <c r="R7">
-        <v>245.4</v>
+        <v>642.5</v>
       </c>
       <c r="S7">
-        <v>119.8</v>
+        <v>305.8</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>22528.000000000004</v>
+        <v>171381.6875</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="E8">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="F8">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H8">
-        <v>42.6</v>
+        <v>71.5</v>
       </c>
       <c r="I8">
-        <v>54.3</v>
+        <v>91</v>
       </c>
       <c r="J8">
-        <v>2492</v>
+        <v>8091</v>
       </c>
       <c r="K8">
-        <v>311</v>
+        <v>736</v>
       </c>
       <c r="L8">
-        <v>6.78</v>
+        <v>9.43</v>
       </c>
       <c r="N8">
-        <v>889</v>
+        <v>2843</v>
       </c>
       <c r="O8">
-        <v>111</v>
+        <v>258</v>
       </c>
       <c r="P8">
-        <v>4.05</v>
+        <v>5.59</v>
       </c>
       <c r="Q8">
-        <v>32.200000000000003</v>
+        <v>81.8</v>
       </c>
       <c r="R8">
-        <v>354</v>
+        <v>827</v>
       </c>
       <c r="S8">
-        <v>170</v>
+        <v>393.9</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>48026.002499999995</v>
+        <v>295785.71999999997</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="F9">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H9">
-        <v>51.2</v>
+        <v>83.2</v>
       </c>
       <c r="I9">
-        <v>65.3</v>
+        <v>106</v>
       </c>
       <c r="J9">
-        <v>3831</v>
+        <v>11260</v>
       </c>
       <c r="K9">
-        <v>426</v>
+        <v>938</v>
       </c>
       <c r="L9">
-        <v>7.66</v>
+        <v>10.3</v>
       </c>
       <c r="N9">
-        <v>1363</v>
+        <v>3923</v>
       </c>
       <c r="O9">
-        <v>151</v>
+        <v>327</v>
       </c>
       <c r="P9">
-        <v>4.57</v>
+        <v>6.08</v>
       </c>
       <c r="Q9">
-        <v>45.1</v>
+        <v>107</v>
       </c>
       <c r="R9">
-        <v>481.4</v>
+        <v>1053</v>
       </c>
       <c r="S9">
-        <v>231</v>
+        <v>498.4</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>93897.070000000022</v>
+        <v>487717.16750000004</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="F10">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H10">
-        <v>61.3</v>
+        <v>93</v>
       </c>
       <c r="I10">
-        <v>78.099999999999994</v>
+        <v>118.4</v>
       </c>
       <c r="J10">
-        <v>5696</v>
+        <v>14920</v>
       </c>
       <c r="K10">
-        <v>570</v>
+        <v>1150</v>
       </c>
       <c r="L10">
-        <v>8.5399999999999991</v>
+        <v>11.2</v>
       </c>
       <c r="N10">
-        <v>2003</v>
+        <v>5135</v>
       </c>
       <c r="O10">
-        <v>200</v>
+        <v>395</v>
       </c>
       <c r="P10">
-        <v>5.07</v>
+        <v>6.58</v>
       </c>
       <c r="Q10">
-        <v>61.4</v>
+        <v>125</v>
       </c>
       <c r="R10">
-        <v>642.5</v>
+        <v>1283</v>
       </c>
       <c r="S10">
-        <v>305.8</v>
+        <v>602.20000000000005</v>
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>171381.6875</v>
+        <v>754925.234375</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="E11">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F11">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H11">
-        <v>71.5</v>
+        <v>103</v>
       </c>
       <c r="I11">
-        <v>91</v>
+        <v>131.4</v>
       </c>
       <c r="J11">
-        <v>8091</v>
+        <v>19270</v>
       </c>
       <c r="K11">
-        <v>736</v>
+        <v>1380</v>
       </c>
       <c r="L11">
-        <v>9.43</v>
+        <v>12.1</v>
       </c>
       <c r="N11">
-        <v>2843</v>
+        <v>6595</v>
       </c>
       <c r="O11">
-        <v>258</v>
+        <v>471</v>
       </c>
       <c r="P11">
-        <v>5.59</v>
+        <v>7.09</v>
       </c>
       <c r="Q11">
-        <v>81.8</v>
+        <v>148</v>
       </c>
       <c r="R11">
-        <v>827</v>
+        <v>1534</v>
       </c>
       <c r="S11">
-        <v>393.9</v>
+        <v>717.6</v>
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>295785.71999999997</v>
+        <v>1131767.95</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E12">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="F12">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H12">
-        <v>83.2</v>
+        <v>117</v>
       </c>
       <c r="I12">
-        <v>106</v>
+        <v>149.1</v>
       </c>
       <c r="J12">
-        <v>11260</v>
+        <v>25170</v>
       </c>
       <c r="K12">
-        <v>938</v>
+        <v>1680</v>
       </c>
       <c r="L12">
-        <v>10.3</v>
+        <v>13</v>
       </c>
       <c r="N12">
-        <v>3923</v>
+        <v>8563</v>
       </c>
       <c r="O12">
-        <v>327</v>
+        <v>571</v>
       </c>
       <c r="P12">
-        <v>6.08</v>
+        <v>7.58</v>
       </c>
       <c r="Q12">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="R12">
-        <v>1053</v>
+        <v>1869</v>
       </c>
       <c r="S12">
-        <v>498.4</v>
+        <v>870.1</v>
       </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>487717.16750000004</v>
+        <v>1690357.6075000002</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="B13">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E13">
-        <v>1.75</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F13">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H13">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="I13">
-        <v>118.4</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="J13">
-        <v>14920</v>
+        <v>30820</v>
       </c>
       <c r="K13">
-        <v>1150</v>
+        <v>1930</v>
       </c>
       <c r="L13">
-        <v>11.2</v>
+        <v>13.8</v>
       </c>
       <c r="N13">
-        <v>5135</v>
+        <v>9239</v>
       </c>
       <c r="O13">
-        <v>395</v>
+        <v>616</v>
       </c>
       <c r="P13">
-        <v>6.58</v>
+        <v>7.57</v>
       </c>
       <c r="Q13">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="R13">
-        <v>1283</v>
+        <v>2149</v>
       </c>
       <c r="S13">
-        <v>602.20000000000005</v>
+        <v>939.1</v>
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>754925.234375</v>
+        <v>2071851.5243749998</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="B14">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="E14">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="F14">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H14">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="I14">
-        <v>131.4</v>
+        <v>170.9</v>
       </c>
       <c r="J14">
-        <v>19270</v>
+        <v>36660</v>
       </c>
       <c r="K14">
-        <v>1380</v>
+        <v>2160</v>
       </c>
       <c r="L14">
-        <v>12.1</v>
+        <v>14.6</v>
       </c>
       <c r="N14">
-        <v>6595</v>
+        <v>9690</v>
       </c>
       <c r="O14">
-        <v>471</v>
+        <v>646</v>
       </c>
       <c r="P14">
-        <v>7.09</v>
+        <v>7.53</v>
       </c>
       <c r="Q14">
-        <v>148</v>
+        <v>270</v>
       </c>
       <c r="R14">
-        <v>1534</v>
+        <v>2408</v>
       </c>
       <c r="S14">
-        <v>717.6</v>
+        <v>985.7</v>
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>1131767.95</v>
+        <v>2457438.5062500001</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>30</v>
       </c>
       <c r="D15">
-        <v>1.1000000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="E15">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="F15">
         <v>2.7</v>
       </c>
       <c r="H15">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="I15">
-        <v>149.1</v>
+        <v>180.6</v>
       </c>
       <c r="J15">
-        <v>25170</v>
+        <v>43190</v>
       </c>
       <c r="K15">
-        <v>1680</v>
+        <v>2400</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="N15">
-        <v>8563</v>
+        <v>10140</v>
       </c>
       <c r="O15">
-        <v>571</v>
+        <v>676</v>
       </c>
       <c r="P15">
-        <v>7.58</v>
+        <v>7.49</v>
       </c>
       <c r="Q15">
-        <v>188</v>
+        <v>310</v>
       </c>
       <c r="R15">
-        <v>1869</v>
+        <v>2683</v>
       </c>
       <c r="S15">
-        <v>870.1</v>
+        <v>1032</v>
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>1690357.6075000002</v>
+        <v>2887523.4375</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="B16">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>30</v>
       </c>
       <c r="D16">
-        <v>1.1499999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="E16">
-        <v>2.0499999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="F16">
         <v>2.7</v>
       </c>
       <c r="H16">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="I16">
-        <v>161.30000000000001</v>
+        <v>197.8</v>
       </c>
       <c r="J16">
-        <v>30820</v>
+        <v>57680</v>
       </c>
       <c r="K16">
-        <v>1930</v>
+        <v>2880</v>
       </c>
       <c r="L16">
-        <v>13.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="N16">
-        <v>9239</v>
+        <v>10820</v>
       </c>
       <c r="O16">
-        <v>616</v>
+        <v>721</v>
       </c>
       <c r="P16">
-        <v>7.57</v>
+        <v>7.4</v>
       </c>
       <c r="Q16">
-        <v>233</v>
+        <v>382</v>
       </c>
       <c r="R16">
-        <v>2149</v>
+        <v>3232</v>
       </c>
       <c r="S16">
-        <v>939.1</v>
+        <v>1104</v>
       </c>
       <c r="T16">
         <f t="shared" si="0"/>
-        <v>2071851.5243749998</v>
+        <v>3824220.8000000007</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="B17">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <v>30</v>
       </c>
       <c r="D17">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E17">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="F17">
         <v>2.7</v>
       </c>
       <c r="H17">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="I17">
-        <v>170.9</v>
+        <v>218</v>
       </c>
       <c r="J17">
-        <v>36660</v>
+        <v>79890</v>
       </c>
       <c r="K17">
-        <v>2160</v>
+        <v>3550</v>
       </c>
       <c r="L17">
-        <v>14.6</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="N17">
-        <v>9690</v>
+        <v>11720</v>
       </c>
       <c r="O17">
-        <v>646</v>
+        <v>781</v>
       </c>
       <c r="P17">
-        <v>7.53</v>
+        <v>7.33</v>
       </c>
       <c r="Q17">
-        <v>270</v>
+        <v>485</v>
       </c>
       <c r="R17">
-        <v>2408</v>
+        <v>3982</v>
       </c>
       <c r="S17">
-        <v>985.7</v>
+        <v>1198</v>
       </c>
       <c r="T17">
         <f t="shared" si="0"/>
-        <v>2457438.5062500001</v>
+        <v>5267436.8</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="B18">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>30</v>
       </c>
       <c r="D18">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="E18">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="F18">
         <v>2.7</v>
       </c>
       <c r="H18">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="I18">
-        <v>180.6</v>
+        <v>238.6</v>
       </c>
       <c r="J18">
-        <v>43190</v>
+        <v>107180</v>
       </c>
       <c r="K18">
-        <v>2400</v>
+        <v>42990</v>
       </c>
       <c r="L18">
-        <v>15.5</v>
+        <v>21.2</v>
       </c>
       <c r="N18">
-        <v>10140</v>
+        <v>12620</v>
       </c>
       <c r="O18">
-        <v>676</v>
+        <v>842</v>
       </c>
       <c r="P18">
-        <v>7.49</v>
+        <v>7.27</v>
       </c>
       <c r="Q18">
-        <v>310</v>
+        <v>605</v>
       </c>
       <c r="R18">
-        <v>2683</v>
+        <v>4815</v>
       </c>
       <c r="S18">
-        <v>1032</v>
+        <v>1292</v>
       </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>2887523.4375</v>
+        <v>7028835.2000000002</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>30</v>
       </c>
       <c r="D19">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="E19">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="F19">
         <v>2.7</v>
       </c>
       <c r="H19">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="I19">
-        <v>197.8</v>
+        <v>254.1</v>
       </c>
       <c r="J19">
-        <v>57680</v>
+        <v>136690</v>
       </c>
       <c r="K19">
-        <v>2880</v>
+        <v>4970</v>
       </c>
       <c r="L19">
-        <v>17.100000000000001</v>
+        <v>23.2</v>
       </c>
       <c r="N19">
-        <v>10820</v>
+        <v>13080</v>
       </c>
       <c r="O19">
-        <v>721</v>
+        <v>872</v>
       </c>
       <c r="P19">
-        <v>7.4</v>
+        <v>7.17</v>
       </c>
       <c r="Q19">
-        <v>382</v>
+        <v>679</v>
       </c>
       <c r="R19">
-        <v>3232</v>
+        <v>5591</v>
       </c>
       <c r="S19">
-        <v>1104</v>
+        <v>1341</v>
       </c>
       <c r="T19">
         <f t="shared" si="0"/>
-        <v>3824220.8000000007</v>
+        <v>8876120.7000000011</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="B20">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>30</v>
       </c>
       <c r="D20">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="E20">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>2.7</v>
       </c>
       <c r="H20">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="I20">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="J20">
-        <v>79890</v>
+        <v>171040</v>
       </c>
       <c r="K20">
-        <v>3550</v>
+        <v>5700</v>
       </c>
       <c r="L20">
-        <v>19.100000000000001</v>
+        <v>25.2</v>
       </c>
       <c r="N20">
-        <v>11720</v>
+        <v>13530</v>
       </c>
       <c r="O20">
-        <v>781</v>
+        <v>902</v>
       </c>
       <c r="P20">
-        <v>7.33</v>
+        <v>7.08</v>
       </c>
       <c r="Q20">
-        <v>485</v>
+        <v>759</v>
       </c>
       <c r="R20">
-        <v>3982</v>
+        <v>6425</v>
       </c>
       <c r="S20">
-        <v>1198</v>
+        <v>1391</v>
       </c>
       <c r="T20">
         <f t="shared" si="0"/>
-        <v>5267436.8</v>
+        <v>10989742.5</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>30</v>
       </c>
       <c r="D21">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="E21">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="F21">
         <v>2.7</v>
       </c>
       <c r="H21">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="I21">
-        <v>238.6</v>
+        <v>286.3</v>
       </c>
       <c r="J21">
-        <v>107180</v>
+        <v>210620</v>
       </c>
       <c r="K21">
-        <v>42990</v>
+        <v>6480</v>
       </c>
       <c r="L21">
-        <v>21.2</v>
+        <v>27.1</v>
       </c>
       <c r="N21">
-        <v>12620</v>
+        <v>13980</v>
       </c>
       <c r="O21">
-        <v>842</v>
+        <v>932</v>
       </c>
       <c r="P21">
-        <v>7.27</v>
+        <v>6.99</v>
       </c>
       <c r="Q21">
-        <v>605</v>
+        <v>845</v>
       </c>
       <c r="R21">
-        <v>4815</v>
+        <v>7320</v>
       </c>
       <c r="S21">
-        <v>1292</v>
+        <v>1441</v>
       </c>
       <c r="T21">
         <f t="shared" si="0"/>
-        <v>7028835.2000000002</v>
+        <v>13391476.949999999</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="B22">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C22">
         <v>30</v>
       </c>
       <c r="D22">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E22">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="F22">
         <v>2.7</v>
       </c>
       <c r="H22">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="I22">
-        <v>254.1</v>
+        <v>306.39999999999998</v>
       </c>
       <c r="J22">
-        <v>136690</v>
+        <v>256890</v>
       </c>
       <c r="K22">
-        <v>4970</v>
+        <v>7340</v>
       </c>
       <c r="L22">
-        <v>23.2</v>
+        <v>29</v>
       </c>
       <c r="N22">
-        <v>13080</v>
+        <v>14440</v>
       </c>
       <c r="O22">
-        <v>872</v>
+        <v>963</v>
       </c>
       <c r="P22">
-        <v>7.17</v>
+        <v>6.87</v>
       </c>
       <c r="Q22">
-        <v>679</v>
+        <v>949</v>
       </c>
       <c r="R22">
-        <v>5591</v>
+        <v>8327</v>
       </c>
       <c r="S22">
-        <v>1341</v>
+        <v>1495</v>
       </c>
       <c r="T22">
         <f t="shared" si="0"/>
-        <v>8876120.7000000011</v>
+        <v>16108686.399999999</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="B23">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>30</v>
       </c>
       <c r="D23">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="E23">
+        <v>3.3</v>
+      </c>
+      <c r="F23">
         <v>3</v>
       </c>
-      <c r="F23">
-        <v>2.7</v>
-      </c>
       <c r="H23">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="I23">
-        <v>270</v>
+        <v>334.2</v>
       </c>
       <c r="J23">
-        <v>171040</v>
+        <v>359080</v>
       </c>
       <c r="K23">
-        <v>5700</v>
+        <v>8980</v>
       </c>
       <c r="L23">
-        <v>25.2</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="N23">
-        <v>13530</v>
+        <v>14900</v>
       </c>
       <c r="O23">
-        <v>902</v>
+        <v>994</v>
       </c>
       <c r="P23">
-        <v>7.08</v>
+        <v>6.68</v>
       </c>
       <c r="Q23">
-        <v>759</v>
+        <v>1062</v>
       </c>
       <c r="R23">
-        <v>6425</v>
+        <v>10230</v>
       </c>
       <c r="S23">
-        <v>1391</v>
+        <v>1553</v>
       </c>
       <c r="T23">
         <f t="shared" si="0"/>
-        <v>10989742.5</v>
+        <v>21913765.25</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="B24">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C24">
         <v>30</v>
       </c>
       <c r="D24">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="E24">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="F24">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="I24">
-        <v>286.3</v>
+        <v>371.3</v>
       </c>
       <c r="J24">
-        <v>210620</v>
+        <v>494070</v>
       </c>
       <c r="K24">
-        <v>6480</v>
+        <v>10980</v>
       </c>
       <c r="L24">
-        <v>27.1</v>
+        <v>36.5</v>
       </c>
       <c r="N24">
-        <v>13980</v>
+        <v>15820</v>
       </c>
       <c r="O24">
-        <v>932</v>
+        <v>1050</v>
       </c>
       <c r="P24">
-        <v>6.99</v>
+        <v>6.53</v>
       </c>
       <c r="Q24">
-        <v>845</v>
+        <v>1290</v>
       </c>
       <c r="R24">
-        <v>7320</v>
+        <v>12580</v>
       </c>
       <c r="S24">
-        <v>1441</v>
+        <v>1658</v>
       </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>13391476.949999999</v>
+        <v>29592298.75</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>30</v>
       </c>
       <c r="D25">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="E25">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="F25">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>241</v>
+        <v>314</v>
       </c>
       <c r="I25">
-        <v>306.39999999999998</v>
+        <v>400</v>
       </c>
       <c r="J25">
-        <v>256890</v>
+        <v>644750</v>
       </c>
       <c r="K25">
-        <v>7340</v>
+        <v>12890</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>40.1</v>
       </c>
       <c r="N25">
-        <v>14440</v>
+        <v>16280</v>
       </c>
       <c r="O25">
-        <v>963</v>
+        <v>1090</v>
       </c>
       <c r="P25">
-        <v>6.87</v>
+        <v>6.38</v>
       </c>
       <c r="Q25">
-        <v>949</v>
+        <v>1432</v>
       </c>
       <c r="R25">
-        <v>8327</v>
+        <v>14860</v>
       </c>
       <c r="S25">
-        <v>1495</v>
+        <v>1716</v>
       </c>
       <c r="T25">
-        <f t="shared" si="0"/>
-        <v>16108686.399999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>800</v>
-      </c>
-      <c r="B26">
-        <v>80</v>
-      </c>
-      <c r="C26">
-        <v>30</v>
-      </c>
-      <c r="D26">
-        <v>1.75</v>
-      </c>
-      <c r="E26">
-        <v>3.3</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>262</v>
-      </c>
-      <c r="I26">
-        <v>334.2</v>
-      </c>
-      <c r="J26">
-        <v>359080</v>
-      </c>
-      <c r="K26">
-        <v>8980</v>
-      </c>
-      <c r="L26">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="N26">
-        <v>14900</v>
-      </c>
-      <c r="O26">
-        <v>994</v>
-      </c>
-      <c r="P26">
-        <v>6.68</v>
-      </c>
-      <c r="Q26">
-        <v>1062</v>
-      </c>
-      <c r="R26">
-        <v>10230</v>
-      </c>
-      <c r="S26">
-        <v>1553</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="0"/>
-        <v>21913765.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>900</v>
-      </c>
-      <c r="B27">
-        <v>90</v>
-      </c>
-      <c r="C27">
-        <v>30</v>
-      </c>
-      <c r="D27">
-        <v>1.85</v>
-      </c>
-      <c r="E27">
-        <v>3.5</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>291</v>
-      </c>
-      <c r="I27">
-        <v>371.3</v>
-      </c>
-      <c r="J27">
-        <v>494070</v>
-      </c>
-      <c r="K27">
-        <v>10980</v>
-      </c>
-      <c r="L27">
-        <v>36.5</v>
-      </c>
-      <c r="N27">
-        <v>15820</v>
-      </c>
-      <c r="O27">
-        <v>1050</v>
-      </c>
-      <c r="P27">
-        <v>6.53</v>
-      </c>
-      <c r="Q27">
-        <v>1290</v>
-      </c>
-      <c r="R27">
-        <v>12580</v>
-      </c>
-      <c r="S27">
-        <v>1658</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="0"/>
-        <v>29592298.75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1000</v>
-      </c>
-      <c r="B28">
-        <v>100</v>
-      </c>
-      <c r="C28">
-        <v>30</v>
-      </c>
-      <c r="D28">
-        <v>1.9</v>
-      </c>
-      <c r="E28">
-        <v>3.6</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>314</v>
-      </c>
-      <c r="I28">
-        <v>400</v>
-      </c>
-      <c r="J28">
-        <v>644750</v>
-      </c>
-      <c r="K28">
-        <v>12890</v>
-      </c>
-      <c r="L28">
-        <v>40.1</v>
-      </c>
-      <c r="N28">
-        <v>16280</v>
-      </c>
-      <c r="O28">
-        <v>1090</v>
-      </c>
-      <c r="P28">
-        <v>6.38</v>
-      </c>
-      <c r="Q28">
-        <v>1432</v>
-      </c>
-      <c r="R28">
-        <v>14860</v>
-      </c>
-      <c r="S28">
-        <v>1716</v>
-      </c>
-      <c r="T28">
         <f t="shared" si="0"/>
         <v>37822347.200000003</v>
       </c>
@@ -3338,7 +3338,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
